--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B6E9C5-A729-44B7-85B3-932B1451CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE076CFD-B692-487E-AA83-DE5EAC3F4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="77">
   <si>
     <t>Nombre</t>
   </si>
@@ -240,13 +240,67 @@
   </si>
   <si>
     <t>NumericoDecimal</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unica a cada factura</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre del usuario de la factura</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la fecha de emision de la factura</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el valor de la factura</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre del servicio para el que hizo la factura</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un pago con el mismo identificador</t>
+  </si>
+  <si>
+    <t>Pagos unicos</t>
+  </si>
+  <si>
+    <t>Factura Unica</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de una factura igual</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Pagos Unicos</t>
+  </si>
+  <si>
+    <t>No es posible tener dos medios de pagos iguales</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada tipo de pago</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un tipo de pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,12 +347,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -534,7 +582,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -687,90 +735,105 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1161,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,11 +1245,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,51 +1276,68 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="54" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{4D2E8264-18B1-4DDF-B5CE-D62D0C971434}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1266,7 +1346,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,70 +1373,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="75" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1512,526 +1592,8 @@
       <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="81" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>60</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="62"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="53" t="str">
-        <f>+'Listado Objetos de Dominio'!A3</f>
-        <v>Factura</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="54" t="str">
-        <f>+'Listado Objetos de Dominio'!B3</f>
-        <v>Objeto de dominio que contiene la informacion de las facturas que emite el spa</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2052,6 +1614,533 @@
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
     </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="38" t="str">
+        <f>+A5</f>
+        <v>Identificador</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="68"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+    <hyperlink ref="B7" location="TipoDePago!A1" display="TipoDePago" xr:uid="{6D0877F2-F02B-4417-AD0E-712869FFCB89}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="74" t="str">
+        <f>+'Listado Objetos de Dominio'!A3</f>
+        <v>Factura</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="75" t="str">
+        <f>+'Listado Objetos de Dominio'!B3</f>
+        <v>Objeto de dominio que contiene la informacion de las facturas que emite el spa</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A20</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A21</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>57</v>
@@ -2059,31 +2148,51 @@
       <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q8" s="34"/>
       <c r="R8" s="23"/>
       <c r="S8" s="28"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2113,233 +2222,268 @@
         <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="23"/>
       <c r="S9" s="28"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="14" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="38" t="str">
+        <f>+A6</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59" t="s">
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59" t="s">
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59" t="s">
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59" t="s">
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="19" t="s">
+      <c r="R16" s="68"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="K17" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="19" t="s">
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R17" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
+    <hyperlink ref="H21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="B10" location="Pago!A1" display="Pago" xr:uid="{D2754DEC-658D-45D2-AAFC-6B458DDAA383}"/>
+    <hyperlink ref="B9" location="'Listado Objetos de Dominio'!A1" display="Servicios" xr:uid="{255DA626-5926-4471-93E2-857AAEF90083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2347,103 +2491,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:U6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="74" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>TipoPago</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="75" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2495,19 +2637,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
+        <f>A14</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -2546,7 +2688,7 @@
         <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
@@ -2588,278 +2730,241 @@
         <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="38" t="str">
+        <f>+A6</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="62"/>
+      <c r="A14" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
+      <c r="A16" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A17" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O12:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
+    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2873,15 +2978,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3025,6 +3121,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
@@ -3035,14 +3140,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3060,6 +3157,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE076CFD-B692-487E-AA83-DE5EAC3F4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20B668-F809-4BEC-8950-0FC87DB798F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="163">
   <si>
     <t>Nombre</t>
   </si>
@@ -164,18 +164,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>Pagos</t>
   </si>
   <si>
@@ -294,6 +282,276 @@
   </si>
   <si>
     <t>Atributo que contiene el nombre que identifica a un tipo de pago</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>crear Pagos</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Pagoss en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Pagos en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-Pagos-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Pagos creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Pagos</t>
+  </si>
+  <si>
+    <t>Pol-Pagos-002</t>
+  </si>
+  <si>
+    <t>Pol-Pagos-003</t>
+  </si>
+  <si>
+    <t>Consultar Pagos</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Pagos registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Pagos.</t>
+  </si>
+  <si>
+    <t>Pol-Pagos-004</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Pagos</t>
+  </si>
+  <si>
+    <t>No debe existir otro pago con el mismo codigo</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo pago deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una sucursal a la cual debe estar asociado el pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Pagos-005 </t>
+  </si>
+  <si>
+    <t>crear Facturas</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Facturass en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Facturas en el sistema.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Facturas creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Facturas</t>
+  </si>
+  <si>
+    <t>modificar Facturas</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Facturas en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Facturas.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Facturas con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Facturas</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Facturas no existe.</t>
+  </si>
+  <si>
+    <t>Consultar Facturas</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Facturas registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Facturas.</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Facturas</t>
+  </si>
+  <si>
+    <t>Eliminar Facturas</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Facturas del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Facturas.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Facturas</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Facturas</t>
+  </si>
+  <si>
+    <t>Pol-Factura-001</t>
+  </si>
+  <si>
+    <t>No debe existir otra factura con el mismo codigo</t>
+  </si>
+  <si>
+    <t>Pol-Factura-002</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva factura deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-Factura-003</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una reserva a la cual debe estar asociada la factura</t>
+  </si>
+  <si>
+    <t>Pol-Factura-005</t>
+  </si>
+  <si>
+    <t>No debe existir otra factura, a excepcion de que sea la misma factura que se esta modificando</t>
+  </si>
+  <si>
+    <t>Pol-Factura-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir la factura que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-Factura-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Factura-008: </t>
+  </si>
+  <si>
+    <t>Pol-Factura-007</t>
+  </si>
+  <si>
+    <t>Que la factura exista y no este pagada</t>
+  </si>
+  <si>
+    <t>crear TipoDePago</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del TipoDePago</t>
+  </si>
+  <si>
+    <t>modificar TipoDePago</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del TipoDePago</t>
+  </si>
+  <si>
+    <t>Consultar TipoDePago</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del TipoDePago</t>
+  </si>
+  <si>
+    <t>Eliminar TipoDePago</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del TipoDePago</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Tipo De Pagos en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Tipo De Pago en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Tipo De Pago registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Tipo De Pago del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-001</t>
+  </si>
+  <si>
+    <t>No debe existir otro tipo de pago con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-002</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo tipo de pago deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-003</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una factura a la cual debe estar asociado el tipo de pago</t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-005</t>
+  </si>
+  <si>
+    <t>No debe existir otro tipo de pago, a excepcion de que sea el mismo tipo de pago que se esta modificando</t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir el tipo de pago que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-TipoPago-008: </t>
+  </si>
+  <si>
+    <t>Pol-TipoPago-007</t>
+  </si>
+  <si>
+    <t>Que el tipo de pago exista</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Tipo De Pago en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Tipo De Pago.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Tipo De Pago.</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Tipo De Pago.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Tipo De Pago creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Tipo De Pago con el mismo nombre</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Tipo De Pago no existe.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Tipo De Pago</t>
   </si>
 </sst>
 </file>
@@ -349,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +668,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -576,13 +840,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,48 +1066,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -695,39 +1092,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,95 +1109,275 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1224,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1262,73 +1806,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="B4" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="C4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>37</v>
+      <c r="D4" s="33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>66</v>
+      <c r="A5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="K13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,76 +1911,77 @@
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="42" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="43" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1487,29 +2032,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear Pagos</v>
+      </c>
+      <c r="R4" s="25">
         <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A17</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 4</v>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1521,37 +2066,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1566,34 +2111,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1609,17 +2154,17 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1634,55 +2179,55 @@
     </row>
     <row r="11" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="38" t="str">
+        <v>64</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="28" t="str">
         <f>+A5</f>
         <v>Identificador</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="68"/>
+      <c r="R13" s="51"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1695,12 +2240,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -1710,100 +2255,181 @@
       <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="H15" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="70"/>
+    </row>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="78"/>
+    </row>
+    <row r="18" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="108"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1813,33 +2439,14 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
     <hyperlink ref="B7" location="TipoDePago!A1" display="TipoDePago" xr:uid="{6D0877F2-F02B-4417-AD0E-712869FFCB89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,13 +2456,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="A18:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,76 +2483,77 @@
     <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="42" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>Factura</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="43" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la informacion de las facturas que emite el spa</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1996,29 +2604,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear Facturas</v>
+      </c>
+      <c r="R4" s="25">
         <f>A19</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A20</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A21</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar Facturas</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2030,37 +2638,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>57</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2075,34 +2683,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2114,39 +2722,39 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13"/>
       <c r="K7" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2162,37 +2770,37 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2207,34 +2815,34 @@
       <c r="I9" s="5"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="31"/>
+        <v>61</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2250,18 +2858,18 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="31"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -2276,55 +2884,55 @@
     </row>
     <row r="14" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="38" t="str">
+        <v>65</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="28" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67" t="s">
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67" t="s">
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="68"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -2337,12 +2945,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -2352,114 +2960,303 @@
       <c r="Q17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
+    <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="27"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="70"/>
+    </row>
+    <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="78"/>
+    </row>
+    <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="94"/>
+    </row>
+    <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="R23" s="102"/>
+    </row>
+    <row r="24" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="108"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="119"/>
+    </row>
+    <row r="26" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="121"/>
+      <c r="C26" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="124" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
+  <mergeCells count="39">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:N25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -2469,21 +3266,34 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
     <hyperlink ref="B10" location="Pago!A1" display="Pago" xr:uid="{D2754DEC-658D-45D2-AAFC-6B458DDAA383}"/>
     <hyperlink ref="B9" location="'Listado Objetos de Dominio'!A1" display="Servicios" xr:uid="{255DA626-5926-4471-93E2-857AAEF90083}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{DC84CFF6-46DC-46AB-9F39-89169C94C755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2491,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,77 +3325,77 @@
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="42" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>TipoPago</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="43" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2636,29 +3446,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="27" t="str">
         <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>crear TipoDePago</v>
+      </c>
+      <c r="R4" s="25">
         <f>A15</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26">
         <f>A16</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar TipoDePago</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2670,37 +3480,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>71</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2715,35 +3525,35 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -2758,56 +3568,56 @@
     </row>
     <row r="10" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="38" t="str">
+        <v>70</v>
+      </c>
+      <c r="C10" s="28" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67" t="s">
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="68"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -2820,12 +3630,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -2835,136 +3645,338 @@
       <c r="Q13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+    <row r="14" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="66"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="70"/>
+    </row>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="78"/>
+    </row>
+    <row r="17" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="84"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="R17" s="86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="94"/>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="102"/>
+    </row>
+    <row r="20" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="108"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="119"/>
+    </row>
+    <row r="22" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="121"/>
+      <c r="C22" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" s="124" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
+  <mergeCells count="39">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{203967BF-1227-4FD7-B492-6E2BCB03645F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2972,9 +3984,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3122,19 +4137,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3158,9 +4169,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20B668-F809-4BEC-8950-0FC87DB798F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862285D6-7FDE-4261-B999-8D196F5E21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1127,6 +1127,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1148,97 +1295,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,6 +1322,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,127 +1343,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1414,17 +1414,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543533</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>10271</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429748</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF20398C-65BD-4E35-833D-3B6106D42DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A0DCFD-745B-45E9-9508-D84312FA6A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4353533" cy="5344271"/>
+          <a:ext cx="8049748" cy="2819794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,7 +1769,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,70 +1918,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="92" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2160,11 +2160,11 @@
       <c r="T7" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2190,44 +2190,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48" t="s">
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48" t="s">
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="51"/>
+      <c r="R13" s="85"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2240,12 +2240,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2260,173 +2260,157 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="60" t="s">
+      <c r="J15" s="81"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="60" t="s">
+      <c r="P15" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="61" t="s">
+      <c r="R15" s="87" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="60" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="70"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="88"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="60" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="78"/>
+      <c r="R17" s="89"/>
     </row>
     <row r="18" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="110" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="P18" s="110" t="s">
+      <c r="P18" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="108" t="s">
+      <c r="Q18" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="111" t="s">
+      <c r="R18" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="110" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="110" t="s">
+      <c r="P19" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="119"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:N17"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="R15:R17"/>
@@ -2439,6 +2423,22 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2458,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2490,70 +2490,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>Factura</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="92" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la informacion de las facturas que emite el spa</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2865,11 +2865,11 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -2895,44 +2895,44 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48" t="s">
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48" t="s">
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="51"/>
+      <c r="R16" s="85"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -2945,12 +2945,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -2965,118 +2965,118 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58" t="s">
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="60" t="s">
+      <c r="J18" s="81"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="Q18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="87" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="60" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="70"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="88"/>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="60" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="78"/>
+      <c r="R20" s="89"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81" t="s">
+      <c r="B21" s="105"/>
+      <c r="C21" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="84" t="s">
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="112"/>
       <c r="O21" s="35" t="s">
         <v>121</v>
       </c>
@@ -3086,25 +3086,25 @@
       <c r="Q21" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="R21" s="86" t="s">
+      <c r="R21" s="101" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
       <c r="O22" s="35" t="s">
         <v>117</v>
       </c>
@@ -3114,23 +3114,23 @@
       <c r="Q22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="94"/>
+      <c r="R22" s="102"/>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
       <c r="O23" s="35" t="s">
         <v>123</v>
       </c>
@@ -3140,110 +3140,133 @@
       <c r="Q23" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="R23" s="102"/>
+      <c r="R23" s="103"/>
     </row>
     <row r="24" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="109" t="s">
+      <c r="H24" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="108" t="s">
+      <c r="I24" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="108"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="110" t="s">
+      <c r="J24" s="57"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="110" t="s">
+      <c r="P24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="108" t="s">
+      <c r="Q24" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="111" t="s">
+      <c r="R24" s="61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="110" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="110" t="s">
+      <c r="P25" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="119"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="62"/>
     </row>
     <row r="26" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="52" t="s">
+      <c r="B26" s="99"/>
+      <c r="C26" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="44" t="s">
         <v>48</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="34"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="123" t="s">
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="123" t="s">
+      <c r="P26" s="45" t="s">
         <v>128</v>
       </c>
       <c r="Q26" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="R26" s="124" t="s">
+      <c r="R26" s="46" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="K26:N26"/>
@@ -3257,32 +3280,9 @@
     <mergeCell ref="K24:N25"/>
     <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R24:R25"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:F23"/>
     <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3303,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R20" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
@@ -3332,70 +3332,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="91" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>TipoPago</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="92" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3549,11 +3549,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -3580,44 +3580,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48" t="s">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="51"/>
+      <c r="R12" s="85"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -3630,12 +3630,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -3650,118 +3650,118 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="60" t="s">
+      <c r="J14" s="81"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="P14" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="R14" s="61" t="s">
+      <c r="R14" s="87" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="60" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="70"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="88"/>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="60" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="60" t="s">
+      <c r="P16" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="78"/>
+      <c r="R16" s="89"/>
     </row>
     <row r="17" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="105"/>
+      <c r="C17" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84" t="s">
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="85" t="s">
+      <c r="H17" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="83"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
       <c r="O17" s="35" t="s">
         <v>147</v>
       </c>
@@ -3771,25 +3771,25 @@
       <c r="Q17" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="R17" s="86" t="s">
+      <c r="R17" s="101" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="91"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
       <c r="O18" s="35" t="s">
         <v>143</v>
       </c>
@@ -3799,23 +3799,23 @@
       <c r="Q18" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="94"/>
+      <c r="R18" s="102"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="99"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
       <c r="O19" s="35" t="s">
         <v>149</v>
       </c>
@@ -3825,128 +3825,114 @@
       <c r="Q19" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="102"/>
+      <c r="R19" s="103"/>
     </row>
     <row r="20" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="110" t="s">
+      <c r="J20" s="57"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="110" t="s">
+      <c r="P20" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q20" s="108" t="s">
+      <c r="Q20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="111" t="s">
+      <c r="R20" s="61" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="110" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="119"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="122" t="s">
+      <c r="H22" s="44" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>158</v>
       </c>
       <c r="J22" s="34"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="123" t="s">
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="123" t="s">
+      <c r="P22" s="45" t="s">
         <v>154</v>
       </c>
       <c r="Q22" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="R22" s="124" t="s">
+      <c r="R22" s="46" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="A14:B16"/>
@@ -3961,13 +3947,27 @@
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="A17:B19"/>
     <mergeCell ref="C17:F19"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3993,6 +3993,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4136,12 +4142,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -4151,6 +4151,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4168,15 +4177,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862285D6-7FDE-4261-B999-8D196F5E21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CCD34A-BC58-4DE5-890E-7D0472C9E0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1145,117 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1187,162 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,51 +1377,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,23 +1408,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>429748</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152794</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>744011</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A0DCFD-745B-45E9-9508-D84312FA6A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD7C06A-5F33-1A1C-9AF0-ECFBF17DAE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,8 +1440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8049748" cy="2819794"/>
+          <a:off x="8382000" y="3429000"/>
+          <a:ext cx="7602011" cy="2800741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1918,70 +1918,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="54" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B3" s="55" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2160,11 +2160,11 @@
       <c r="T7" s="23"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2190,44 +2190,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84" t="s">
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84" t="s">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2240,12 +2240,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -2260,30 +2260,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="78" t="s">
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="71"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="79"/>
       <c r="O15" s="42" t="s">
         <v>80</v>
       </c>
@@ -2293,25 +2293,25 @@
       <c r="Q15" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="42" t="s">
         <v>83</v>
       </c>
@@ -2319,23 +2319,23 @@
         <v>91</v>
       </c>
       <c r="Q16" s="42"/>
-      <c r="R16" s="88"/>
+      <c r="R16" s="51"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="77"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="42" t="s">
         <v>84</v>
       </c>
@@ -2345,84 +2345,72 @@
       <c r="Q17" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="52"/>
     </row>
     <row r="18" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="57" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
       <c r="O18" s="43" t="s">
         <v>88</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" s="57" t="s">
+      <c r="Q18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="43" t="s">
         <v>93</v>
       </c>
       <c r="P19" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:N19"/>
     <mergeCell ref="Q18:Q19"/>
@@ -2439,6 +2427,18 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2458,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2490,70 +2490,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="54" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>Factura</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B3" s="55" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene la informacion de las facturas que emite el spa</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2865,11 +2865,11 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -2895,44 +2895,44 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84" t="s">
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="85"/>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -2945,12 +2945,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -2965,30 +2965,30 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="78" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="81" t="s">
+      <c r="H18" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="71"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
       <c r="O18" s="42" t="s">
         <v>115</v>
       </c>
@@ -2998,25 +2998,25 @@
       <c r="Q18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="R18" s="87" t="s">
+      <c r="R18" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="82"/>
       <c r="O19" s="42" t="s">
         <v>117</v>
       </c>
@@ -3024,23 +3024,23 @@
         <v>118</v>
       </c>
       <c r="Q19" s="42"/>
-      <c r="R19" s="88"/>
+      <c r="R19" s="51"/>
     </row>
     <row r="20" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="77"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="42" t="s">
         <v>119</v>
       </c>
@@ -3050,33 +3050,33 @@
       <c r="Q20" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="89"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="110" t="s">
+      <c r="B21" s="120"/>
+      <c r="C21" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="119" t="s">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="119"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="112"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="106"/>
       <c r="O21" s="35" t="s">
         <v>121</v>
       </c>
@@ -3086,25 +3086,25 @@
       <c r="Q21" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="R21" s="101" t="s">
+      <c r="R21" s="116" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
       <c r="O22" s="35" t="s">
         <v>117</v>
       </c>
@@ -3114,23 +3114,23 @@
       <c r="Q22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="102"/>
+      <c r="R22" s="117"/>
     </row>
     <row r="23" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112"/>
       <c r="O23" s="35" t="s">
         <v>123</v>
       </c>
@@ -3140,81 +3140,81 @@
       <c r="Q23" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="R23" s="103"/>
+      <c r="R23" s="118"/>
     </row>
     <row r="24" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="57" t="s">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="65"/>
       <c r="O24" s="43" t="s">
         <v>125</v>
       </c>
       <c r="P24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="61" t="s">
+      <c r="R24" s="69" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="68"/>
       <c r="O25" s="43" t="s">
         <v>126</v>
       </c>
       <c r="P25" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="70"/>
     </row>
     <row r="26" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="100" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="34" t="s">
         <v>74</v>
       </c>
@@ -3225,10 +3225,10 @@
         <v>112</v>
       </c>
       <c r="J26" s="34"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
       <c r="O26" s="45" t="s">
         <v>127</v>
       </c>
@@ -3244,29 +3244,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:N23"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="K26:N26"/>
@@ -3283,6 +3260,29 @@
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:F23"/>
     <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3303,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R20" sqref="R20:R21"/>
     </sheetView>
   </sheetViews>
@@ -3332,70 +3332,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="54" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>TipoPago</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B3" s="55" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3549,11 +3549,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -3580,44 +3580,44 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84" t="s">
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -3630,12 +3630,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -3650,30 +3650,30 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="78" t="s">
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="81"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="71"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="42" t="s">
         <v>141</v>
       </c>
@@ -3683,25 +3683,25 @@
       <c r="Q14" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="R14" s="87" t="s">
+      <c r="R14" s="50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="42" t="s">
         <v>143</v>
       </c>
@@ -3709,23 +3709,23 @@
         <v>144</v>
       </c>
       <c r="Q15" s="42"/>
-      <c r="R15" s="88"/>
+      <c r="R15" s="51"/>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="42" t="s">
         <v>145</v>
       </c>
@@ -3735,33 +3735,33 @@
       <c r="Q16" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="89"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="110" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="119" t="s">
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="119" t="s">
+      <c r="I17" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="119"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="106"/>
       <c r="O17" s="35" t="s">
         <v>147</v>
       </c>
@@ -3771,25 +3771,25 @@
       <c r="Q17" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="R17" s="101" t="s">
+      <c r="R17" s="116" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="109"/>
       <c r="O18" s="35" t="s">
         <v>143</v>
       </c>
@@ -3799,23 +3799,23 @@
       <c r="Q18" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="102"/>
+      <c r="R18" s="117"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="112"/>
       <c r="O19" s="35" t="s">
         <v>149</v>
       </c>
@@ -3825,81 +3825,81 @@
       <c r="Q19" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="103"/>
+      <c r="R19" s="118"/>
     </row>
     <row r="20" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="57" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
       <c r="O20" s="43" t="s">
         <v>151</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Q20" s="57" t="s">
+      <c r="Q20" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="61" t="s">
+      <c r="R20" s="69" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="43" t="s">
         <v>152</v>
       </c>
       <c r="P21" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="34" t="s">
         <v>74</v>
       </c>
@@ -3910,10 +3910,10 @@
         <v>158</v>
       </c>
       <c r="J22" s="34"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
       <c r="O22" s="45" t="s">
         <v>153</v>
       </c>
@@ -3929,29 +3929,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="O12:P12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="K22:N22"/>
@@ -3968,6 +3945,29 @@
     <mergeCell ref="A17:B19"/>
     <mergeCell ref="C17:F19"/>
     <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="R14:R16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3993,12 +3993,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4142,6 +4136,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -4151,15 +4151,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4177,6 +4168,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Pagos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744FEC65-22EA-4D51-82A0-42A51846A9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4769B-6B2F-4B6C-A3AF-169616B35BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Nombre</t>
   </si>
@@ -213,9 +213,6 @@
     <t>El usuario debe estar permitido para consultar</t>
   </si>
   <si>
-    <t>crear Pagos</t>
-  </si>
-  <si>
     <t>Esta responsabilidad implica el proceso de agregar nuevos Pagoss en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
   </si>
   <si>
@@ -225,18 +222,12 @@
     <t>Pol-Pagos-001</t>
   </si>
   <si>
-    <t>Se genera una excepcion indicando que ya existe un Pagos creado con el mismo nombre</t>
-  </si>
-  <si>
     <t>Cancelar la creacion del Pagos</t>
   </si>
   <si>
     <t>Pol-Pagos-002</t>
   </si>
   <si>
-    <t>Pol-Pagos-003</t>
-  </si>
-  <si>
     <t>Consultar Pagos</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>Los datos del nuevo pago deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
   </si>
   <si>
-    <t>Debe de exisitir una sucursal a la cual debe estar asociado el pago</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pol-Pagos-005 </t>
   </si>
   <si>
@@ -268,6 +256,12 @@
   </si>
   <si>
     <t>Atributo que contiene el nombre que identifica a la transaccion de un pago</t>
+  </si>
+  <si>
+    <t>Realizar Pagos</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Pagos creado con el mismo codigo</t>
   </si>
 </sst>
 </file>
@@ -713,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -800,124 +794,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +841,117 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1427,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,70 +1446,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="39" t="str">
         <f>+'Listado Objetos de Dominio'!A2</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="40" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1571,7 +1562,7 @@
       </c>
       <c r="Q4" s="22" t="str">
         <f>A14</f>
-        <v>crear Pagos</v>
+        <v>Realizar Pagos</v>
       </c>
       <c r="R4" s="21" t="str">
         <f>+A17</f>
@@ -1613,7 +1604,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="19"/>
@@ -1653,18 +1644,18 @@
         <v>42</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1690,44 +1681,44 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70" t="s">
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="71"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="17" t="s">
         <v>28</v>
       </c>
@@ -1740,12 +1731,12 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
       <c r="O13" s="17" t="s">
         <v>30</v>
       </c>
@@ -1760,169 +1751,153 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="49" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="58" t="s">
+      <c r="J14" s="74"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="31" t="s">
+      <c r="P14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="31" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="73" t="s">
-        <v>55</v>
-      </c>
+      <c r="P15" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="36"/>
     </row>
-    <row r="15" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="74"/>
-    </row>
-    <row r="16" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="75"/>
+    <row r="16" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="35" t="s">
+      <c r="P17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="54" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" s="41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="32" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
+  <mergeCells count="31">
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:N18"/>
     <mergeCell ref="Q17:Q18"/>
@@ -1939,6 +1914,21 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1952,21 +1942,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -2110,24 +2085,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2145,6 +2118,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
